--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4884FCD-2213-4DEE-A60D-1A6BF26D2499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916BA6F6-372B-4B95-9044-9291C933A73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="563" yWindow="5828" windowWidth="19365" windowHeight="12187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>what</t>
   </si>
@@ -37,221 +37,80 @@
     <t>why</t>
   </si>
   <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>College of Education Technology Committee</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Nashville, TN</t>
-  </si>
-  <si>
-    <t>Bloomington, IN</t>
-  </si>
-  <si>
-    <r>
-      <t>Madison</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF545454"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="4"/>
-        <color rgb="FF6A6A6A"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>WI</t>
-    </r>
-  </si>
-  <si>
-    <t>Funding Reviewer</t>
-  </si>
-  <si>
-    <t>Libraries' Accessibility Student Advisory Group</t>
-  </si>
-  <si>
-    <t>The 14th International Conference of the Learning Sciences (ICLS)</t>
-  </si>
-  <si>
-    <t>The 3rd Learning Sciences Graduate Student Conference (LSGSC)</t>
-  </si>
-  <si>
-    <t>Center for Online Innovation in Learning (COIL), The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>The 2nd Learning Sciences Graduate Student Conference (LSGSC)</t>
-  </si>
-  <si>
-    <t>The 1st International Conference on Quantitative Ethnography (ICQE)</t>
-  </si>
-  <si>
-    <t>Aug. 2019 - May. 2020</t>
-  </si>
-  <si>
-    <t>2019, 2020</t>
-  </si>
-  <si>
-    <t>The ACM CHI Conference on Human Factors in Computing Systems (CHI 2020, 2021)</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>etwork of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cademic </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rograms in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>earning </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ciences </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14.3"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.2"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NAPLeS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14.3"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>International Society of the Learning Sciences</t>
-  </si>
-  <si>
-    <t>Reviewed abstracts on equity and disability.</t>
-  </si>
-  <si>
-    <t>Honolulu, HI, Yokohama, Japan</t>
-  </si>
-  <si>
-    <t>Worked as a student committee member to support understanding of educational technology for College of Education.</t>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>American Statistical Association</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>Utah Chapter</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Psychology Department</t>
+  </si>
+  <si>
+    <t>School Psychology PhD Program Accreditation</t>
+  </si>
+  <si>
+    <t>May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall 2017 </t>
+  </si>
+  <si>
+    <t>American Journal of Preventive Medicine</t>
+  </si>
+  <si>
+    <t>Spring 2020</t>
+  </si>
+  <si>
+    <t>Review Journal Manuscript</t>
+  </si>
+  <si>
+    <t>Borg Scholarship Committee Member</t>
+  </si>
+  <si>
+    <t>College of Education and Human Services, Office of Research Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APA Virtual Site Visit </t>
+  </si>
+  <si>
+    <t>Human Development and Family Studies Department</t>
+  </si>
+  <si>
+    <t>Interview potential grad students of Dean Al Smith</t>
+  </si>
+  <si>
+    <t>May 2020</t>
+  </si>
+  <si>
+    <t>Search Committee Member, Data Cluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,55 +244,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF212529"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="4"/>
-      <color rgb="FF6A6A6A"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF545454"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="16.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14.3"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.2"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -777,14 +587,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,161 +945,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="52.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="301" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2018</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2017</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E8" t="s">
         <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2016</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916BA6F6-372B-4B95-9044-9291C933A73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E0555F-275F-4DA2-BF73-0E1C498B268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="563" yWindow="5828" windowWidth="19365" windowHeight="12187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45180" yWindow="600" windowWidth="25230" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>what</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Search Committee Member, Data Cluster</t>
+  </si>
+  <si>
+    <t>Institutional Review Board</t>
+  </si>
+  <si>
+    <t>Feb 2024</t>
+  </si>
+  <si>
+    <t>Statistical Consultation: Power and other sample size considerations</t>
   </si>
 </sst>
 </file>
@@ -649,9 +658,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -689,7 +698,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -795,7 +804,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -937,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1095,6 +1104,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\myCV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E0555F-275F-4DA2-BF73-0E1C498B268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA6BF1-A7B8-4803-89FB-2856A9F60DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45180" yWindow="600" windowWidth="25230" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29325" yWindow="975" windowWidth="27555" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>what</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Statistical Consultation: Power and other sample size considerations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APA Site Visit </t>
+  </si>
+  <si>
+    <t>Nov 2025</t>
   </si>
 </sst>
 </file>
@@ -954,21 +960,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="1"/>
-    <col min="5" max="5" width="52.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -988,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1118,6 +1124,23 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
